--- a/Assignment 1/Data_Dictionary.xlsx
+++ b/Assignment 1/Data_Dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>The CONTENTS Procedure</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Metabolic syndrome</t>
+  </si>
+  <si>
+    <t>MS_5cri</t>
+  </si>
+  <si>
+    <t>Number of criteria met for metabolic syndrome diagnosis</t>
   </si>
   <si>
     <t>HT</t>
@@ -516,7 +522,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
     </sheetView>
@@ -529,7 +535,7 @@
     <col min="4" max="4" width="5.71" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.71" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -908,13 +914,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -922,19 +928,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>46</v>
@@ -1000,10 +1006,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>52</v>
@@ -1023,10 +1029,10 @@
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>54</v>
@@ -1069,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1083,22 +1089,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1106,19 +1112,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="7">
-        <v>8</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>64</v>
@@ -1144,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1152,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -1161,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>67</v>
@@ -1184,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>69</v>
@@ -1253,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>75</v>
@@ -1322,10 +1328,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>81</v>
@@ -1345,10 +1351,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>83</v>
@@ -1368,16 +1374,39 @@
         <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" ht="12" customHeight="1"/>
+    </row>
+    <row r="40" ht="14" customHeight="1">
+      <c r="A40" s="5">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
